--- a/Shablon/MSO-X3104A.xlsx
+++ b/Shablon/MSO-X3104A.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="197">
   <si>
     <t>Fном, МГц</t>
   </si>
@@ -359,12 +359,6 @@
     </r>
   </si>
   <si>
-    <t>1 Внешний осмотр (п. 7.1): ___________________</t>
-  </si>
-  <si>
-    <t>2 Опробование (п. 7.2): ___________________</t>
-  </si>
-  <si>
     <t>3.1 Определение абсолютной погрешности установки коэффициента отклонения (п. 7.4)</t>
   </si>
   <si>
@@ -753,23 +747,6 @@
     <t>55420-13</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Протокол периодической поверки № </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10/25-12-2023/</t>
-    </r>
-  </si>
-  <si>
     <t>± 0,64 мВ</t>
   </si>
   <si>
@@ -825,6 +802,12 @@
   </si>
   <si>
     <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.ru</t>
+  </si>
+  <si>
+    <t>1 Внешний осмотр (п. 7.1): соответствует</t>
+  </si>
+  <si>
+    <t>2 Опробование (п. 7.2): соответствует</t>
   </si>
 </sst>
 </file>
@@ -1170,13 +1153,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1193,22 +1173,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1227,6 +1207,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1565,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1577,72 +1560,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="A1" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="A3" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="A4" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
@@ -1669,21 +1652,20 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="23"/>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="str">
+        <f>"Протокол поверки № 10/"&amp;C74&amp;"/"&amp;C11</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
@@ -1698,16 +1680,16 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="46"/>
+      <c r="A10" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="45"/>
       <c r="C10" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="35"/>
@@ -1716,12 +1698,12 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="46"/>
+      <c r="A11" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="45"/>
       <c r="C11" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -1732,42 +1714,42 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
+      <c r="A12" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="11"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" s="39"/>
-      <c r="C13" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="11"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="46"/>
+      <c r="A14" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="45"/>
       <c r="C14" s="37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -1778,34 +1760,34 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="A15" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="11"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="A16" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="11"/>
       <c r="J16" s="3"/>
     </row>
@@ -1848,20 +1830,20 @@
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="54" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54" t="s">
+      <c r="F21" s="53"/>
+      <c r="G21" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="54"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
@@ -1870,88 +1852,88 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="52" t="s">
+      <c r="E22" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="52"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="52" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="52" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="52"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="52"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="52"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50">
         <v>5</v>
       </c>
-      <c r="H27" s="52"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1967,7 +1949,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1993,7 +1975,7 @@
     </row>
     <row r="31" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="17"/>
@@ -2007,7 +1989,7 @@
     </row>
     <row r="32" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2058,7 +2040,7 @@
     </row>
     <row r="36" spans="1:10" s="19" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2081,27 +2063,27 @@
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="55" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="54" t="s">
         <v>26</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
@@ -2114,7 +2096,7 @@
       <c r="F39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="56"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
@@ -2126,19 +2108,19 @@
         <v>30</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E40" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>93</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2151,19 +2133,19 @@
         <v>31</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2176,19 +2158,19 @@
         <v>32</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>100</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -2201,19 +2183,19 @@
         <v>33</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D43" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>103</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -2226,19 +2208,19 @@
         <v>34</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D44" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>106</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -2251,19 +2233,19 @@
         <v>35</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D45" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>109</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2276,19 +2258,19 @@
         <v>36</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D46" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2301,19 +2283,19 @@
         <v>37</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D47" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>115</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2326,19 +2308,19 @@
         <v>38</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D48" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>118</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -2351,19 +2333,19 @@
         <v>39</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D49" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>121</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2376,19 +2358,19 @@
         <v>40</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D50" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>124</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2401,19 +2383,19 @@
         <v>41</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>127</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2426,19 +2408,19 @@
         <v>42</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E52" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>94</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2451,19 +2433,19 @@
         <v>43</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -2476,19 +2458,19 @@
         <v>44</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D54" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E54" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>131</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -2501,19 +2483,19 @@
         <v>45</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D55" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>134</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -2526,19 +2508,19 @@
         <v>46</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -2551,19 +2533,19 @@
         <v>47</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D57" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E57" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>139</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -2576,19 +2558,19 @@
         <v>48</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D58" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E58" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -2601,19 +2583,19 @@
         <v>49</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D59" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>145</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -2626,19 +2608,19 @@
         <v>50</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D60" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E60" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>148</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -2651,19 +2633,19 @@
         <v>51</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -2676,19 +2658,19 @@
         <v>52</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D62" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>153</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -2701,19 +2683,19 @@
         <v>53</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D63" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="E63" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>156</v>
-      </c>
       <c r="G63" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -2731,7 +2713,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2798,7 +2780,7 @@
     </row>
     <row r="70" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
@@ -2814,34 +2796,34 @@
       <c r="D71" s="32"/>
       <c r="E71" s="27"/>
       <c r="F71" s="31"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="43"/>
+      <c r="C72" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="28" t="s">
+      <c r="E72" s="44"/>
+      <c r="F72" s="29" t="s">
         <v>159</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" s="45"/>
-      <c r="F72" s="29" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B74" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="45"/>
+        <v>160</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2851,13 +2833,13 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="G38:G39"/>
@@ -2872,8 +2854,7 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="C74:D74"/>
@@ -2888,6 +2869,7 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A38:A39"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.31496062992125984"/>
